--- a/survey/survey.xlsx
+++ b/survey/survey.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\maxkapur.github.io\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="pre-transposition" sheetId="1" r:id="rId2"/>
+    <sheet name="transposed" sheetId="2" r:id="rId1"/>
+    <sheet name="original entry" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>When I have a question, I tend to ask Max.</t>
-  </si>
-  <si>
-    <t>In general, Max is too lenient. </t>
   </si>
   <si>
     <t>If the teachers at our school were less strict, I would learn more.</t>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>No Abe etc</t>
+  </si>
+  <si>
+    <t>In general, Max is too lenient.</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:C158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,43 +590,43 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U7">
         <v>20</v>
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U20">
         <v>18</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U24">
         <v>18</v>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -2419,16 +2419,16 @@
         <v>3</v>
       </c>
       <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
         <v>27</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35" t="s">
-        <v>28</v>
       </c>
       <c r="U35" s="2">
         <v>28.5</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U38">
         <v>18</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U44" s="2">
         <v>21.5</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U47">
         <v>-10</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U51">
         <v>26</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
         <v>4</v>
       </c>
       <c r="Q61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -4037,16 +4037,16 @@
         <v>2</v>
       </c>
       <c r="Q64" t="s">
+        <v>35</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
         <v>36</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64" t="s">
-        <v>37</v>
       </c>
       <c r="U64">
         <v>18</v>
@@ -4161,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="Q66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R70">
         <v>1</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -4608,16 +4608,16 @@
         <v>1</v>
       </c>
       <c r="Q75" t="s">
+        <v>40</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s">
         <v>41</v>
-      </c>
-      <c r="R75">
-        <v>1</v>
-      </c>
-      <c r="S75">
-        <v>1</v>
-      </c>
-      <c r="T75" t="s">
-        <v>42</v>
       </c>
       <c r="U75">
         <v>23</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U84">
         <v>24</v>
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="Q86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R86">
         <v>1</v>
@@ -5268,16 +5268,16 @@
         <v>5</v>
       </c>
       <c r="Q87" t="s">
+        <v>44</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87" t="s">
         <v>45</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87" t="s">
-        <v>46</v>
       </c>
       <c r="U87">
         <v>27</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="T88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U88">
         <v>18</v>
@@ -5559,7 +5559,7 @@
         <v>5</v>
       </c>
       <c r="Q93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U97">
         <v>18</v>
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R99">
         <v>1</v>
@@ -6357,16 +6357,16 @@
         <v>4</v>
       </c>
       <c r="Q108" t="s">
+        <v>49</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s">
         <v>50</v>
-      </c>
-      <c r="R108">
-        <v>1</v>
-      </c>
-      <c r="S108">
-        <v>1</v>
-      </c>
-      <c r="T108" t="s">
-        <v>51</v>
       </c>
       <c r="U108">
         <v>22</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="T116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U116">
         <v>18</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="T118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U118">
         <v>18</v>
@@ -7018,16 +7018,16 @@
         <v>3</v>
       </c>
       <c r="Q119" t="s">
+        <v>53</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119" t="s">
         <v>54</v>
-      </c>
-      <c r="R119">
-        <v>1</v>
-      </c>
-      <c r="S119">
-        <v>0</v>
-      </c>
-      <c r="T119" t="s">
-        <v>55</v>
       </c>
       <c r="U119">
         <v>18</v>
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="T122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U122">
         <v>18</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="T125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="T127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="T133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U133">
         <v>1</v>
@@ -7946,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="Q136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R136">
         <v>1</v>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="T139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U139">
         <v>20</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="T140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U140">
         <v>20</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="T144" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U144">
         <v>23</v>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="T148" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U148">
         <v>25</v>
@@ -8763,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="T150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U150">
         <v>24</v>
@@ -9072,7 +9072,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:CU21"/>
+      <selection pane="topRight" activeCell="BE13" sqref="BE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11246,7 +11246,7 @@
     </row>
     <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -11766,7 +11766,7 @@
     </row>
     <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -12026,7 +12026,7 @@
     </row>
     <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -12289,7 +12289,7 @@
     </row>
     <row r="13" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -12543,7 +12543,7 @@
     </row>
     <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -13045,7 +13045,7 @@
     </row>
     <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -13290,51 +13290,51 @@
     </row>
     <row r="17" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" t="s">
         <v>21</v>
       </c>
-      <c r="T17" t="s">
-        <v>22</v>
-      </c>
       <c r="AA17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI17" t="s">
         <v>26</v>
       </c>
-      <c r="AI17" t="s">
-        <v>27</v>
-      </c>
       <c r="BI17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL17" t="s">
         <v>35</v>
       </c>
-      <c r="BL17" t="s">
-        <v>36</v>
-      </c>
       <c r="BN17" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR17" t="s">
         <v>38</v>
       </c>
-      <c r="BR17" t="s">
-        <v>39</v>
-      </c>
       <c r="BW17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CH17" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI17" t="s">
         <v>44</v>
       </c>
-      <c r="CI17" t="s">
-        <v>45</v>
-      </c>
       <c r="CO17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CU17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -13612,7 +13612,7 @@
     </row>
     <row r="19" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -13890,66 +13890,66 @@
     </row>
     <row r="20" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" t="s">
         <v>23</v>
       </c>
-      <c r="T20" t="s">
+      <c r="X20" t="s">
         <v>24</v>
       </c>
-      <c r="X20" t="s">
-        <v>25</v>
-      </c>
       <c r="AI20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL20" t="s">
         <v>28</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AN20" t="s">
         <v>29</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AO20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR20" t="s">
         <v>30</v>
       </c>
-      <c r="AO20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR20" t="s">
+      <c r="AU20" t="s">
         <v>31</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AY20" t="s">
         <v>32</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="BE20" t="s">
         <v>33</v>
       </c>
-      <c r="BE20" t="s">
-        <v>34</v>
-      </c>
       <c r="BL20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BV20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BW20" t="s">
+        <v>41</v>
+      </c>
+      <c r="CF20" t="s">
         <v>42</v>
       </c>
-      <c r="CF20" t="s">
-        <v>43</v>
-      </c>
       <c r="CI20" t="s">
+        <v>45</v>
+      </c>
+      <c r="CJ20" t="s">
         <v>46</v>
       </c>
-      <c r="CJ20" t="s">
-        <v>47</v>
-      </c>
       <c r="CS20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>18</v>
